--- a/NGUYENTRUONGAN-A202301/問題３/問題03.xlsx
+++ b/NGUYENTRUONGAN-A202301/問題３/問題03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuji_.FOMTEC06811450.000\Documents\★変更\sasikae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user2023\OneDrive\Documents\Office のカスタム テンプレート\Excel\NGUYENTRUONGAN-A202301\問題３\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CEFC09-279C-4638-9571-8205F1E58CED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6A91C9-F294-4DE2-922A-9C5001E5CE7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7605" xr2:uid="{02D80B09-3205-451B-A686-CF71CE0B1E67}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" xr2:uid="{02D80B09-3205-451B-A686-CF71CE0B1E67}"/>
   </bookViews>
   <sheets>
     <sheet name="物件一覧" sheetId="1" r:id="rId1"/>
@@ -732,7 +732,36 @@
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -743,6 +772,38 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{08F0E6A4-0C26-423D-A53F-2DB3CBE1B4B6}" name="テーブル3" displayName="テーブル3" ref="B3:M58" totalsRowShown="0">
+  <autoFilter ref="B3:M58" xr:uid="{E067E412-05B9-429F-8C95-F38CDC1996B1}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="代々木上原"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="2LDK"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{7552B512-DFE3-4677-86BE-567BEDEDB817}" name="管理番号"/>
+    <tableColumn id="2" xr3:uid="{24C393BE-9B48-4458-A45B-D72981020FD1}" name="物件名"/>
+    <tableColumn id="3" xr3:uid="{99BB1383-6319-4762-8B19-4FA98E209578}" name="所在地"/>
+    <tableColumn id="4" xr3:uid="{E241D6BA-89A9-4B90-9425-3817E7CF25F4}" name="沿線"/>
+    <tableColumn id="5" xr3:uid="{9BB40376-3963-430A-B065-2161DFC8450D}" name="最寄駅"/>
+    <tableColumn id="6" xr3:uid="{10A841F2-7478-4559-B968-F9BBE5E3EDCB}" name="徒歩（分）"/>
+    <tableColumn id="7" xr3:uid="{B1EBBC29-FDB1-4684-8328-159D43C23907}" name="価格（万円）" dataDxfId="1" dataCellStyle="桁区切り"/>
+    <tableColumn id="8" xr3:uid="{C117DB48-307C-484D-AD5E-3F8473A92522}" name="間取り"/>
+    <tableColumn id="9" xr3:uid="{08F9C9BC-0D6D-4BA1-BA00-1909A2AF3137}" name="専有面積"/>
+    <tableColumn id="10" xr3:uid="{217B2250-23B0-4DC4-A483-5B64CA71D8B3}" name="階数"/>
+    <tableColumn id="11" xr3:uid="{0565FE58-AFD3-4FD3-8489-39E1DD5643D3}" name="総階数"/>
+    <tableColumn id="12" xr3:uid="{BAEC5F6F-CE06-4A85-9E8D-4CD437140C66}" name="築年月" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1044,29 +1105,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4879EB1B-44CA-40FD-BCC3-F2844EDAC58D}">
   <dimension ref="B1:S58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="2" max="2" width="9.796875" customWidth="1"/>
+    <col min="3" max="3" width="31.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" customWidth="1"/>
+    <col min="8" max="8" width="13.3984375" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="10" max="10" width="9.796875" customWidth="1"/>
+    <col min="11" max="11" width="6.19921875" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="13" max="13" width="11.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="30" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:19" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -1104,7 +1168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>1001</v>
       </c>
@@ -1142,7 +1206,7 @@
         <v>42583</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>1002</v>
       </c>
@@ -1180,7 +1244,7 @@
         <v>43160</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>1003</v>
       </c>
@@ -1218,7 +1282,7 @@
         <v>42461</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>1004</v>
       </c>
@@ -1259,7 +1323,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>1005</v>
       </c>
@@ -1297,7 +1361,7 @@
         <v>42278</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>1006</v>
       </c>
@@ -1335,7 +1399,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>1007</v>
       </c>
@@ -1373,7 +1437,7 @@
         <v>43040</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>1008</v>
       </c>
@@ -1411,7 +1475,7 @@
         <v>42278</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>1009</v>
       </c>
@@ -1449,7 +1513,7 @@
         <v>41913</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>1010</v>
       </c>
@@ -1487,7 +1551,7 @@
         <v>41579</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>1011</v>
       </c>
@@ -1525,7 +1589,7 @@
         <v>41671</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>1012</v>
       </c>
@@ -1563,7 +1627,7 @@
         <v>42461</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:19" hidden="1" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>1013</v>
       </c>
@@ -1601,7 +1665,7 @@
         <v>42583</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B17">
         <v>1014</v>
       </c>
@@ -1639,7 +1703,7 @@
         <v>42583</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B18">
         <v>1015</v>
       </c>
@@ -1677,7 +1741,7 @@
         <v>42948</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B19">
         <v>1016</v>
       </c>
@@ -1715,7 +1779,7 @@
         <v>42461</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B20">
         <v>1017</v>
       </c>
@@ -1753,7 +1817,7 @@
         <v>42430</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B21">
         <v>1018</v>
       </c>
@@ -1791,7 +1855,7 @@
         <v>43160</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B22">
         <v>1019</v>
       </c>
@@ -1829,7 +1893,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B23">
         <v>1020</v>
       </c>
@@ -1867,7 +1931,7 @@
         <v>41518</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B24">
         <v>1021</v>
       </c>
@@ -1905,7 +1969,7 @@
         <v>43160</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B25">
         <v>1022</v>
       </c>
@@ -1943,7 +2007,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B26">
         <v>1023</v>
       </c>
@@ -1981,7 +2045,7 @@
         <v>41913</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B27">
         <v>1024</v>
       </c>
@@ -2019,7 +2083,7 @@
         <v>41913</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B28">
         <v>1025</v>
       </c>
@@ -2057,7 +2121,7 @@
         <v>42278</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B29">
         <v>1026</v>
       </c>
@@ -2095,7 +2159,7 @@
         <v>42461</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B30">
         <v>1027</v>
       </c>
@@ -2133,7 +2197,7 @@
         <v>41760</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B31">
         <v>1028</v>
       </c>
@@ -2171,7 +2235,7 @@
         <v>42278</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B32">
         <v>1029</v>
       </c>
@@ -2209,7 +2273,7 @@
         <v>42186</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B33">
         <v>1030</v>
       </c>
@@ -2247,7 +2311,7 @@
         <v>41913</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B34">
         <v>1031</v>
       </c>
@@ -2285,7 +2349,7 @@
         <v>42278</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B35">
         <v>1032</v>
       </c>
@@ -2323,7 +2387,7 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B36">
         <v>1033</v>
       </c>
@@ -2361,7 +2425,7 @@
         <v>42125</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B37">
         <v>1034</v>
       </c>
@@ -2399,7 +2463,7 @@
         <v>42522</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B38">
         <v>1035</v>
       </c>
@@ -2437,7 +2501,7 @@
         <v>41579</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B39">
         <v>1036</v>
       </c>
@@ -2475,7 +2539,7 @@
         <v>42948</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B40">
         <v>1037</v>
       </c>
@@ -2513,7 +2577,7 @@
         <v>42461</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B41">
         <v>1038</v>
       </c>
@@ -2551,7 +2615,7 @@
         <v>42461</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B42">
         <v>1039</v>
       </c>
@@ -2589,7 +2653,7 @@
         <v>42095</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B43">
         <v>1040</v>
       </c>
@@ -2627,7 +2691,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B44">
         <v>1041</v>
       </c>
@@ -2665,7 +2729,7 @@
         <v>42552</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B45">
         <v>1042</v>
       </c>
@@ -2703,7 +2767,7 @@
         <v>42461</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B46">
         <v>1043</v>
       </c>
@@ -2741,7 +2805,7 @@
         <v>41579</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B47">
         <v>1044</v>
       </c>
@@ -2779,7 +2843,7 @@
         <v>42522</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B48">
         <v>1045</v>
       </c>
@@ -2817,7 +2881,7 @@
         <v>42095</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B49">
         <v>1046</v>
       </c>
@@ -2855,7 +2919,7 @@
         <v>43556</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B50">
         <v>1047</v>
       </c>
@@ -2893,7 +2957,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B51">
         <v>1048</v>
       </c>
@@ -2931,7 +2995,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B52">
         <v>1049</v>
       </c>
@@ -2969,7 +3033,7 @@
         <v>43466</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B53">
         <v>1050</v>
       </c>
@@ -3007,7 +3071,7 @@
         <v>43160</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B54">
         <v>1051</v>
       </c>
@@ -3045,7 +3109,7 @@
         <v>41699</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B55">
         <v>1052</v>
       </c>
@@ -3083,7 +3147,7 @@
         <v>42461</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B56">
         <v>1053</v>
       </c>
@@ -3121,7 +3185,7 @@
         <v>43466</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B57">
         <v>1054</v>
       </c>
@@ -3159,7 +3223,7 @@
         <v>41671</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="B58">
         <v>1055</v>
       </c>
@@ -3204,5 +3268,8 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>